--- a/Project2/P2_Graphs.xlsx
+++ b/Project2/P2_Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\1o Sem\IAJ\Projects\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CEC62F-399B-4553-845C-828F8495D84C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB996F2-F7FE-448D-8A5B-FC9D8C971F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="4404" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10104" yWindow="4068" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="53">
   <si>
     <t>Method</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Calls</t>
   </si>
   <si>
-    <t>Execution Time</t>
-  </si>
-  <si>
     <t>GetBestAndRemove</t>
   </si>
   <si>
@@ -45,112 +42,148 @@
     <t>A* (w/ Euclidian Heurisitc)</t>
   </si>
   <si>
-    <t>SearchInOpen</t>
+    <t>Replace</t>
+  </si>
+  <si>
+    <t>AddToClosed</t>
+  </si>
+  <si>
+    <t>RemoveFromClosed</t>
+  </si>
+  <si>
+    <t>NodeArray A* (w/ Euclidian Heuristic)</t>
+  </si>
+  <si>
+    <t>JPS+</t>
+  </si>
+  <si>
+    <t>Path 1</t>
+  </si>
+  <si>
+    <t>Path 2</t>
+  </si>
+  <si>
+    <t>Path 3</t>
+  </si>
+  <si>
+    <t>Path 4</t>
+  </si>
+  <si>
+    <t>Path 5</t>
+  </si>
+  <si>
+    <t>A* (w/ Euclidian Heuristic)</t>
+  </si>
+  <si>
+    <t>Fill</t>
+  </si>
+  <si>
+    <t>Nodes Explored</t>
+  </si>
+  <si>
+    <t>Max. Size of Open List</t>
+  </si>
+  <si>
+    <t>A* (w/ Tie Breaking &amp; Euclidian Heurisitc)</t>
+  </si>
+  <si>
+    <t>Total Processing Time (s)</t>
+  </si>
+  <si>
+    <t>Avg. Node Processing Time (s)</t>
+  </si>
+  <si>
+    <t>Min. Node Processing Time (s)</t>
+  </si>
+  <si>
+    <t>Max. Node Processing Time (s)</t>
+  </si>
+  <si>
+    <t>A* (w/ Tie Breaking Euclidian Heuristic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>JPS+ (w/ Euclidian Heuristic)</t>
+  </si>
+  <si>
+    <t>Lower Left Corner to Up Right Corner</t>
+  </si>
+  <si>
+    <t>Lower Right Corner to Up Left Corner</t>
+  </si>
+  <si>
+    <t>Lower Left to Upper Left</t>
+  </si>
+  <si>
+    <t>Upper Right to Lower Right</t>
+  </si>
+  <si>
+    <t>Middle to Lower Right</t>
+  </si>
+  <si>
+    <t>Middle to Upper Left</t>
+  </si>
+  <si>
+    <t>Execution Time (ms)</t>
+  </si>
+  <si>
+    <t>ProcessChildNode</t>
+  </si>
+  <si>
+    <t>GetNeighbourList</t>
+  </si>
+  <si>
+    <t>ClosedDictionary.All</t>
+  </si>
+  <si>
+    <t>Enumerator.MoveNext</t>
+  </si>
+  <si>
+    <t>GenerateChildNodeRecord</t>
+  </si>
+  <si>
+    <t>ProcessSuccessorNode</t>
+  </si>
+  <si>
+    <t>GetNodeRecord</t>
+  </si>
+  <si>
+    <t>isCardinal</t>
+  </si>
+  <si>
+    <t>inGeneralDirection</t>
+  </si>
+  <si>
+    <t>inExactDirection</t>
+  </si>
+  <si>
+    <t>CountOpen</t>
+  </si>
+  <si>
+    <t>Search</t>
   </si>
   <si>
     <t>RemoveFromOpen</t>
   </si>
   <si>
-    <t>Replace</t>
-  </si>
-  <si>
-    <t>AddToClosed</t>
-  </si>
-  <si>
-    <t>SearchInClosed</t>
-  </si>
-  <si>
-    <t>RemoveFromClosed</t>
-  </si>
-  <si>
-    <t>NodeArray A* (w/ Euclidian Heuristic)</t>
-  </si>
-  <si>
-    <t>JPS+</t>
-  </si>
-  <si>
-    <t>NodeArrayAStarPathfinding.Search</t>
-  </si>
-  <si>
-    <t>AStarPathfinding.Search</t>
-  </si>
-  <si>
-    <t>JPSPlusPathfinding.Search</t>
-  </si>
-  <si>
-    <t>Path 1</t>
-  </si>
-  <si>
-    <t>Path 2</t>
-  </si>
-  <si>
-    <t>Path 3</t>
-  </si>
-  <si>
-    <t>Path 4</t>
-  </si>
-  <si>
-    <t>Path 5</t>
-  </si>
-  <si>
-    <t>A* (w/ Euclidian Heuristic)</t>
-  </si>
-  <si>
-    <t>Fill</t>
-  </si>
-  <si>
-    <t>Nodes Explored</t>
-  </si>
-  <si>
-    <t>Max. Size of Open List</t>
-  </si>
-  <si>
-    <t>A* (w/ Tie Breaking &amp; Euclidian Heurisitc)</t>
-  </si>
-  <si>
-    <t>Total Processing Time (s)</t>
-  </si>
-  <si>
-    <t>Avg. Node Processing Time (s)</t>
-  </si>
-  <si>
-    <t>Min. Node Processing Time (s)</t>
-  </si>
-  <si>
-    <t>Max. Node Processing Time (s)</t>
-  </si>
-  <si>
-    <t>A* (w/ Tie Breaking Euclidian Heuristic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>JPS+ (w/ Euclidian Heuristic)</t>
-  </si>
-  <si>
-    <t>Lower Left Corner to Up Right Corner</t>
-  </si>
-  <si>
-    <t>Lower Right Corner to Up Left Corner</t>
-  </si>
-  <si>
-    <t>Middle to Upper Right Corner</t>
-  </si>
-  <si>
-    <t>Middle to Lower Left Corner</t>
-  </si>
-  <si>
-    <t>A* (w/ CellDistance Heuristic)</t>
-  </si>
-  <si>
-    <t>A* (w/ Tie Breaking CellDistance Heuristic)</t>
-  </si>
-  <si>
-    <t>NodeArray A* (w/ CellDistance Heuristic)</t>
-  </si>
-  <si>
-    <t>JPS+ (w/ CellDistance Heuristic)</t>
+    <t>SimpleUnorderedList.All</t>
+  </si>
+  <si>
+    <t>Enumerator.get_Current</t>
+  </si>
+  <si>
+    <t>CalculateDistanceCost</t>
+  </si>
+  <si>
+    <t>EuclideanDistance.H</t>
+  </si>
+  <si>
+    <t>DrawPath</t>
+  </si>
+  <si>
+    <t>CalculateFCost</t>
   </si>
 </sst>
 </file>
@@ -183,7 +216,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,14 +525,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
     <col min="5" max="5" width="36.5546875" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
@@ -513,12 +546,12 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -536,77 +569,198 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>394.23</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>3.4718510000000002E-3</v>
+      </c>
+      <c r="J3">
+        <v>5.2452089999999998E-6</v>
+      </c>
+      <c r="K3">
+        <v>3.0224659999999998E-4</v>
+      </c>
+      <c r="L3">
+        <v>5.2760599999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.05</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>4.9805639999999998E-3</v>
+      </c>
+      <c r="J4">
+        <v>9.5367430000000007E-6</v>
+      </c>
+      <c r="K4">
+        <v>4.20911E-4</v>
+      </c>
+      <c r="L4">
+        <v>5.2308100000000003E-2</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2.44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>1.908302E-3</v>
+      </c>
+      <c r="J5">
+        <v>5.7220459999999996E-6</v>
+      </c>
+      <c r="K5">
+        <v>1.985686E-4</v>
+      </c>
+      <c r="L5">
+        <v>4.2916500000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.02</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4.3358800000000003E-3</v>
+      </c>
+      <c r="J6">
+        <v>2.384186E-5</v>
+      </c>
+      <c r="K6">
+        <v>1.2985469999999999E-3</v>
+      </c>
+      <c r="L6">
+        <v>4.2068300000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.36</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -618,59 +772,200 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>3311</v>
+      </c>
+      <c r="C10">
+        <v>0.31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>602</v>
+      </c>
+      <c r="G10">
+        <v>552</v>
+      </c>
+      <c r="H10">
+        <v>57</v>
+      </c>
+      <c r="I10">
+        <v>8.9302059999999996E-3</v>
+      </c>
+      <c r="J10">
+        <v>1.9073489999999998E-6</v>
+      </c>
+      <c r="K10">
+        <v>1.2356579999999999E-4</v>
+      </c>
+      <c r="L10">
+        <v>1.1454610000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>3308</v>
+      </c>
+      <c r="C11">
+        <v>0.26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>602</v>
+      </c>
+      <c r="G11">
+        <v>552</v>
+      </c>
+      <c r="H11">
+        <v>57</v>
+      </c>
+      <c r="I11">
+        <v>8.104801E-3</v>
+      </c>
+      <c r="J11">
+        <v>1.5735630000000001E-5</v>
+      </c>
+      <c r="K11">
+        <v>1.286514E-4</v>
+      </c>
+      <c r="L11">
+        <v>1.20933</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>602</v>
+      </c>
+      <c r="G12">
+        <v>552</v>
+      </c>
+      <c r="H12">
+        <v>57</v>
+      </c>
+      <c r="I12">
+        <v>8.3923339999999999E-5</v>
+      </c>
+      <c r="J12">
+        <v>3.8146969999999998E-6</v>
+      </c>
+      <c r="K12">
+        <v>9.0551540000000001E-6</v>
+      </c>
+      <c r="L12">
+        <v>0.92837570000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>37</v>
+      </c>
+      <c r="G13">
+        <v>23</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>4.959106E-4</v>
+      </c>
+      <c r="J13">
+        <v>3.8146969999999998E-6</v>
+      </c>
+      <c r="K13">
+        <v>2.9177280000000001E-5</v>
+      </c>
+      <c r="L13">
+        <v>8.1698499999999993E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>0.66</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F15" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -681,46 +976,128 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>593</v>
+      </c>
+      <c r="G17">
+        <v>535</v>
+      </c>
+      <c r="H17">
+        <v>58</v>
+      </c>
+      <c r="I17">
+        <v>9.6931459999999997E-3</v>
+      </c>
+      <c r="J17">
+        <v>1.382828E-5</v>
+      </c>
+      <c r="K17">
+        <v>1.3497469999999999E-4</v>
+      </c>
+      <c r="L17">
+        <v>1.0402880000000001</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="F18">
+        <v>593</v>
+      </c>
+      <c r="G18">
+        <v>535</v>
+      </c>
+      <c r="H18">
+        <v>58</v>
+      </c>
+      <c r="I18">
+        <v>8.4762569999999992E-3</v>
+      </c>
+      <c r="J18">
+        <v>1.430511E-5</v>
+      </c>
+      <c r="K18">
+        <v>1.2453569999999999E-4</v>
+      </c>
+      <c r="L18">
+        <v>1.060686</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>593</v>
+      </c>
+      <c r="G19">
+        <v>535</v>
+      </c>
+      <c r="H19">
+        <v>58</v>
+      </c>
+      <c r="I19">
+        <v>2.2947789999999998E-3</v>
+      </c>
+      <c r="J19">
+        <v>3.33786E-6</v>
+      </c>
+      <c r="K19">
+        <v>1.4196559999999999E-5</v>
+      </c>
+      <c r="L19">
+        <v>0.87849670000000002</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -731,24 +1108,57 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="F20">
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>2.6524069999999999E-3</v>
+      </c>
+      <c r="J20">
+        <v>2.8610229999999998E-6</v>
+      </c>
+      <c r="K20">
+        <v>1.437911E-4</v>
+      </c>
+      <c r="L20">
+        <v>0.1001341</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>427.36</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0.1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -760,73 +1170,200 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>6.19</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0.02</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>4.5776370000000002E-5</v>
+      </c>
+      <c r="J24">
+        <v>1.9073489999999998E-6</v>
+      </c>
+      <c r="K24">
+        <v>2.384186E-5</v>
+      </c>
+      <c r="L24">
+        <v>4.30865E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>0.54</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>4.5776370000000002E-5</v>
+      </c>
+      <c r="J25">
+        <v>3.8146969999999998E-6</v>
+      </c>
+      <c r="K25">
+        <v>2.4795529999999999E-5</v>
+      </c>
+      <c r="L25">
+        <v>4.2255000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>2.5577550000000001E-3</v>
+      </c>
+      <c r="J26">
+        <v>4.5466419999999998E-4</v>
+      </c>
+      <c r="K26">
+        <v>1.5062090000000001E-3</v>
+      </c>
+      <c r="L26">
+        <v>4.7771800000000003E-2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0.02</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>4.6019549999999996E-3</v>
+      </c>
+      <c r="J27">
+        <v>4.2629240000000002E-4</v>
+      </c>
+      <c r="K27">
+        <v>2.514124E-3</v>
+      </c>
+      <c r="L27">
+        <v>6.4492099999999997E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>8578</v>
+      </c>
+      <c r="C28">
+        <v>0.85</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>8571</v>
+      </c>
+      <c r="C29">
+        <v>0.57999999999999996</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -837,56 +1374,192 @@
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
       <c r="F30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
+      <c r="I31">
+        <v>3.340483E-3</v>
+      </c>
+      <c r="J31">
+        <v>6.1988830000000002E-6</v>
+      </c>
+      <c r="K31">
+        <v>8.6945299999999996E-4</v>
+      </c>
+      <c r="L31">
+        <v>4.8852899999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" s="1" t="s">
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>16</v>
+      </c>
+      <c r="I32">
+        <v>4.6858790000000004E-3</v>
+      </c>
+      <c r="J32">
+        <v>6.7572000000000003E-6</v>
+      </c>
+      <c r="K32">
+        <v>1.2069940000000001E-3</v>
+      </c>
+      <c r="L32">
+        <v>4.8091399999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>1.81</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>16</v>
+      </c>
+      <c r="I33">
+        <v>5.7220460000000003E-5</v>
+      </c>
+      <c r="J33">
+        <v>3.8146969999999998E-6</v>
+      </c>
+      <c r="K33">
+        <v>2.8610230000000001E-5</v>
+      </c>
+      <c r="L33">
+        <v>3.8064399999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>2.7060510000000001E-3</v>
+      </c>
+      <c r="J34">
+        <v>2.6607509999999998E-4</v>
+      </c>
+      <c r="K34">
+        <v>1.4860629999999999E-3</v>
+      </c>
+      <c r="L34">
+        <v>4.7307399999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F36" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E32" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E33" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -897,81 +1570,189 @@
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="F37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="E38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>3014</v>
+      </c>
+      <c r="G38">
+        <v>2880</v>
+      </c>
+      <c r="H38">
+        <v>184</v>
+      </c>
+      <c r="I38">
+        <v>1.403427E-2</v>
+      </c>
+      <c r="J38">
+        <v>7.6293949999999998E-6</v>
+      </c>
+      <c r="K38">
+        <v>4.2086210000000002E-4</v>
+      </c>
+      <c r="L38">
+        <v>6.2288439999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>31</v>
+      <c r="F39">
+        <v>3011</v>
+      </c>
+      <c r="G39">
+        <v>2877</v>
+      </c>
+      <c r="H39">
+        <v>184</v>
+      </c>
+      <c r="I39">
+        <v>1.473236E-2</v>
+      </c>
+      <c r="J39">
+        <v>7.6293949999999998E-6</v>
+      </c>
+      <c r="K39">
+        <v>4.434234E-4</v>
+      </c>
+      <c r="L39">
+        <v>6.2818319999999996</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>14.53</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>3011</v>
+      </c>
+      <c r="G40">
+        <v>2877</v>
+      </c>
+      <c r="H40">
+        <v>184</v>
+      </c>
+      <c r="I40">
+        <v>4.1198729999999999E-4</v>
+      </c>
+      <c r="J40">
+        <v>3.33786E-6</v>
+      </c>
+      <c r="K40">
+        <v>1.015817E-5</v>
+      </c>
+      <c r="L40">
+        <v>4.2187200000000002</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0.85</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="F41">
+        <v>138</v>
+      </c>
+      <c r="G41">
+        <v>109</v>
+      </c>
+      <c r="H41">
+        <v>21</v>
+      </c>
+      <c r="I41">
+        <v>1.7600059999999999E-3</v>
+      </c>
+      <c r="J41">
+        <v>3.33786E-6</v>
+      </c>
+      <c r="K41">
+        <v>3.4035110000000003E-5</v>
+      </c>
+      <c r="L41">
+        <v>0.25240649999999998</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>0.88</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -983,59 +1764,196 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>9</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
       <c r="F44" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M44" s="1"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>0.35</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="F45">
+        <v>4458</v>
+      </c>
+      <c r="G45">
+        <v>4261</v>
+      </c>
+      <c r="H45">
+        <v>207</v>
+      </c>
+      <c r="I45">
+        <v>1.5914919999999999E-2</v>
+      </c>
+      <c r="J45">
+        <v>1.525879E-5</v>
+      </c>
+      <c r="K45">
+        <v>6.3299839999999999E-4</v>
+      </c>
+      <c r="L45">
+        <v>10.39664</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>0.15</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="F46">
+        <v>4452</v>
+      </c>
+      <c r="G46">
+        <v>4255</v>
+      </c>
+      <c r="H46">
+        <v>204</v>
+      </c>
+      <c r="I46">
+        <v>1.42355E-2</v>
+      </c>
+      <c r="J46">
+        <v>1.430511E-5</v>
+      </c>
+      <c r="K46">
+        <v>6.0017920000000002E-4</v>
+      </c>
+      <c r="L46">
+        <v>10.065899999999999</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>0.02</v>
+      </c>
       <c r="E47" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>4452</v>
+      </c>
+      <c r="G47">
+        <v>4255</v>
+      </c>
+      <c r="H47">
+        <v>204</v>
+      </c>
+      <c r="I47">
+        <v>3.6239619999999998E-4</v>
+      </c>
+      <c r="J47">
+        <v>3.8146969999999998E-6</v>
+      </c>
+      <c r="K47">
+        <v>9.619001E-6</v>
+      </c>
+      <c r="L47">
+        <v>6.4356369999999998</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
       <c r="E48" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="F48">
+        <v>159</v>
+      </c>
+      <c r="G48">
+        <v>142</v>
+      </c>
+      <c r="H48">
+        <v>21</v>
+      </c>
+      <c r="I48">
+        <v>2.0265579999999999E-3</v>
+      </c>
+      <c r="J48">
+        <v>2.8610229999999998E-6</v>
+      </c>
+      <c r="K48">
+        <v>2.9845809999999999E-5</v>
+      </c>
+      <c r="L48">
+        <v>0.29291250000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
       <c r="F50" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -1046,83 +1964,176 @@
       <c r="M50" s="2"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
       <c r="F51" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J51" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M51" s="1"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
       <c r="E52" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="F52">
+        <v>1516</v>
+      </c>
+      <c r="G52">
+        <v>1402</v>
+      </c>
+      <c r="H52">
+        <v>155</v>
+      </c>
+      <c r="I52">
+        <v>1.229858E-2</v>
+      </c>
+      <c r="J52">
+        <v>1.6212460000000002E-5</v>
+      </c>
+      <c r="K52">
+        <v>2.5311870000000001E-4</v>
+      </c>
+      <c r="L52">
+        <v>3.0036149999999999</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="F53">
+        <v>1510</v>
+      </c>
+      <c r="G53">
+        <v>1396</v>
+      </c>
+      <c r="H53">
+        <v>152</v>
+      </c>
+      <c r="I53">
+        <v>1.620483E-2</v>
+      </c>
+      <c r="J53">
+        <v>7.6293949999999998E-6</v>
+      </c>
+      <c r="K53">
+        <v>2.4636120000000002E-4</v>
+      </c>
+      <c r="L53">
+        <v>2.9870510000000001</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>44</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0.2</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>1510</v>
+      </c>
+      <c r="G54">
+        <v>1396</v>
+      </c>
+      <c r="H54">
+        <v>152</v>
+      </c>
+      <c r="I54">
+        <v>8.3456039999999995E-3</v>
+      </c>
+      <c r="J54">
+        <v>3.8146969999999998E-6</v>
+      </c>
+      <c r="K54">
+        <v>1.8536650000000001E-5</v>
+      </c>
+      <c r="L54">
+        <v>2.5630609999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55">
+        <v>66</v>
+      </c>
+      <c r="G55">
+        <v>53</v>
+      </c>
+      <c r="H55">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>33</v>
+      <c r="I55">
+        <v>2.1629330000000001E-3</v>
+      </c>
+      <c r="J55">
+        <v>5.2452089999999998E-6</v>
+      </c>
+      <c r="K55">
+        <v>7.2248049999999993E-5</v>
+      </c>
+      <c r="L55">
+        <v>0.15096560000000001</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>6</v>
-      </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>7</v>
-      </c>
+      <c r="A57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -1133,207 +2144,600 @@
       <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>8</v>
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J58" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M58" s="1"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>12.57</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="F59">
+        <v>868</v>
+      </c>
+      <c r="G59">
+        <v>753</v>
+      </c>
+      <c r="H59">
+        <v>114</v>
+      </c>
+      <c r="I59">
+        <v>1.025009E-2</v>
+      </c>
+      <c r="J59">
+        <v>3.8146969999999998E-6</v>
+      </c>
+      <c r="K59">
+        <v>1.5333E-4</v>
+      </c>
+      <c r="L59">
+        <v>1.5785279999999999</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0.02</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="F60">
+        <v>867</v>
+      </c>
+      <c r="G60">
+        <v>752</v>
+      </c>
+      <c r="H60">
+        <v>114</v>
+      </c>
+      <c r="I60">
+        <v>1.1680599999999999E-2</v>
+      </c>
+      <c r="J60">
+        <v>7.6293949999999998E-6</v>
+      </c>
+      <c r="K60">
+        <v>1.7004954000000001E-4</v>
+      </c>
+      <c r="L60">
+        <v>1.6141570000000001</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>0.32</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <v>867</v>
+      </c>
+      <c r="G61">
+        <v>752</v>
+      </c>
+      <c r="H61">
+        <v>114</v>
+      </c>
+      <c r="I61">
+        <v>1.6756060000000001E-3</v>
+      </c>
+      <c r="J61">
+        <v>2.8610229999999998E-6</v>
+      </c>
+      <c r="K61">
+        <v>1.8411799999999999E-5</v>
+      </c>
+      <c r="L61">
+        <v>1.2781940000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="E62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62">
+        <v>24</v>
+      </c>
+      <c r="G62">
+        <v>12</v>
+      </c>
+      <c r="H62">
         <v>11</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E62" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="I62">
+        <v>2.142906E-3</v>
+      </c>
+      <c r="J62">
+        <v>5.7220459999999996E-6</v>
+      </c>
+      <c r="K62">
+        <v>1.4609099999999999E-4</v>
+      </c>
+      <c r="L62">
+        <v>4.0504579999999998E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-    </row>
-    <row r="65" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-    </row>
-    <row r="66" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-    </row>
-    <row r="68" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="F68" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="F69" s="1" t="s">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>0.01</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66">
+        <v>1024</v>
+      </c>
+      <c r="G66">
+        <v>954</v>
+      </c>
+      <c r="H66">
+        <v>94</v>
+      </c>
+      <c r="I66">
+        <v>9.9620820000000006E-3</v>
+      </c>
+      <c r="J66">
+        <v>1.335144E-5</v>
+      </c>
+      <c r="K66">
+        <v>1.8326010000000001E-4</v>
+      </c>
+      <c r="L66">
+        <v>1.9846060000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="F67">
+        <v>1024</v>
+      </c>
+      <c r="G67">
+        <v>954</v>
+      </c>
+      <c r="H67">
+        <v>94</v>
+      </c>
+      <c r="I67">
+        <v>1.205444E-2</v>
+      </c>
+      <c r="J67">
+        <v>1.239777E-5</v>
+      </c>
+      <c r="K67">
+        <v>1.77145E-4</v>
+      </c>
+      <c r="L67">
+        <v>1.7856989999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68">
+        <v>1024</v>
+      </c>
+      <c r="G68">
+        <v>954</v>
+      </c>
+      <c r="H68">
+        <v>94</v>
+      </c>
+      <c r="I68">
+        <v>7.2479249999999999E-5</v>
+      </c>
+      <c r="J68">
+        <v>3.8146969999999998E-6</v>
+      </c>
+      <c r="K68">
+        <v>1.001731E-5</v>
+      </c>
+      <c r="L68">
+        <v>1.5647059999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69">
+        <v>26</v>
+      </c>
+      <c r="G69">
+        <v>19</v>
+      </c>
+      <c r="H69">
+        <v>11</v>
+      </c>
+      <c r="I69">
+        <v>2.1972659999999998E-3</v>
+      </c>
+      <c r="J69">
+        <v>2.8610229999999998E-6</v>
+      </c>
+      <c r="K69">
+        <v>1.218136E-4</v>
+      </c>
+      <c r="L69">
+        <v>3.7757300000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="F71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E70" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E71" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E72" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="J72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
       <c r="E73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73">
+        <v>2934</v>
+      </c>
+      <c r="G73">
+        <v>2806</v>
+      </c>
+      <c r="H73">
+        <v>169</v>
+      </c>
+      <c r="I73">
+        <v>1.499176E-2</v>
+      </c>
+      <c r="J73">
+        <v>7.6293949999999998E-6</v>
+      </c>
+      <c r="K73">
+        <v>4.12142E-4</v>
+      </c>
+      <c r="L73">
+        <v>6.2213520000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0.67</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74">
+        <v>2928</v>
+      </c>
+      <c r="G74">
+        <v>2800</v>
+      </c>
+      <c r="H74">
+        <v>166</v>
+      </c>
+      <c r="I74">
+        <v>1.299667E-2</v>
+      </c>
+      <c r="J74">
+        <v>5.7220459999999996E-6</v>
+      </c>
+      <c r="K74">
+        <v>3.603527E-4</v>
+      </c>
+      <c r="L74">
+        <v>5.4014379999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="74" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="F75" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-    </row>
-    <row r="76" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="F76" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E77" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E78" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E79" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E80" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>0.02</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75">
+        <v>2928</v>
+      </c>
+      <c r="G75">
+        <v>2800</v>
+      </c>
+      <c r="H75">
+        <v>166</v>
+      </c>
+      <c r="I75">
+        <v>1.068115E-4</v>
+      </c>
+      <c r="J75">
+        <v>3.33786E-6</v>
+      </c>
+      <c r="K75">
+        <v>1.051517E-5</v>
+      </c>
+      <c r="L75">
+        <v>4.2848730000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76">
+        <v>92</v>
+      </c>
+      <c r="G76">
+        <v>79</v>
+      </c>
+      <c r="H76">
+        <v>17</v>
+      </c>
+      <c r="I76">
+        <v>2.0914079999999999E-3</v>
+      </c>
+      <c r="J76">
+        <v>2.8610229999999998E-6</v>
+      </c>
+      <c r="K76">
+        <v>3.9795169999999999E-5</v>
+      </c>
+      <c r="L76">
+        <v>0.16135740000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E80" s="1"/>
     </row>
     <row r="82" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="F82" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -1343,55 +2747,31 @@
       <c r="M82" s="2"/>
     </row>
     <row r="83" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="F83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
     </row>
     <row r="84" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E84" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="E84" s="1"/>
     </row>
     <row r="85" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E85" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E85" s="1"/>
     </row>
     <row r="86" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E86" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="E86" s="1"/>
     </row>
     <row r="87" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E87" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E87" s="1"/>
     </row>
     <row r="88" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="F89" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -1401,62 +2781,40 @@
       <c r="M89" s="2"/>
     </row>
     <row r="90" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="F90" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
     </row>
     <row r="91" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E91" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="E91" s="1"/>
     </row>
     <row r="92" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E92" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E92" s="1"/>
     </row>
     <row r="93" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E93" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="E93" s="1"/>
     </row>
     <row r="94" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E94" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E94" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="F57:M57"/>
-    <mergeCell ref="F68:M68"/>
-    <mergeCell ref="F75:M75"/>
     <mergeCell ref="F82:M82"/>
     <mergeCell ref="F89:M89"/>
+    <mergeCell ref="F64:M64"/>
+    <mergeCell ref="F71:M71"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="F8:M8"/>
     <mergeCell ref="F15:M15"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A57:C57"/>
     <mergeCell ref="F36:M36"/>
     <mergeCell ref="F22:M22"/>
     <mergeCell ref="F29:M29"/>
